--- a/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
+++ b/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\コンポーネント図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846D6B4-C7D7-46E8-88C6-CA264A0021F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009B9363-F43A-4912-9D7B-E5004FEC7CBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="5" r:id="rId1"/>
-    <sheet name="ユーザー登録画面" sheetId="6" r:id="rId2"/>
-    <sheet name="ポーカースタート画面" sheetId="1" r:id="rId3"/>
-    <sheet name="ランキング表示画面" sheetId="7" r:id="rId4"/>
-    <sheet name="ポーカープレイ画面" sheetId="2" r:id="rId5"/>
-    <sheet name="改訂履歴" sheetId="4" r:id="rId6"/>
+    <sheet name="ログインポップアップ" sheetId="9" r:id="rId2"/>
+    <sheet name="ユーザー登録画面" sheetId="6" r:id="rId3"/>
+    <sheet name="ポーカースタート画面" sheetId="1" r:id="rId4"/>
+    <sheet name="ランキング表示画面" sheetId="7" r:id="rId5"/>
+    <sheet name="ポーカープレイ画面" sheetId="2" r:id="rId6"/>
+    <sheet name="共通ヘッダー" sheetId="8" r:id="rId7"/>
+    <sheet name="改訂履歴" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="163">
   <si>
     <t>イベントハンドラ名</t>
     <rPh sb="8" eb="9">
@@ -61,13 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名: App.js</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>props: なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,10 +364,6 @@
     <rPh sb="11" eb="12">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝負ボタンをクリックした時</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -592,10 +583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名: Login.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンポーネント名: LoginHeader</t>
     <rPh sb="7" eb="8">
       <t>メイ</t>
@@ -824,10 +811,6 @@
     <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>handleToPokerStart</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -881,16 +864,6 @@
   <si>
     <t>handleToRanking</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ランキング一覧」リンクをクリックした時</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ポーカーの手札交換】</t>
   </si>
   <si>
     <t>【勝負するかどうか決める】</t>
@@ -1083,6 +1056,417 @@
     </rPh>
     <rPh sb="218" eb="220">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: CommonHeader.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: CommonHeader</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   isBattle・・・勝負するか</t>
+    <rPh sb="14" eb="16">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: ErrorMessage</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　message・・・表示するメッセージ</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーへリクエストを投げて、
+ベット画面へ遷移する(所持金が0円の場合はエラーを表示する)。</t>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     BET・・・ベット中</t>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   pokerPhase・・・ポーカーが今どのフェイズかを示す。フェイズには以下が存在し、各コンポーネント表示の制御に用いる。</t>
+    <rPh sb="46" eb="47">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     HANDCHANGE・・・手札交換中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     CHOICE_BATTLE_OR_FOLD・・・勝負するかしないか選択中</t>
+    <rPh sb="29" eb="31">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>センタクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     AFTER_BATTLE・・・勝負後</t>
+    <rPh sb="20" eb="22">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phaseChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベットボタンをクリックした時
+手札交換ボタンをクリックした時
+勝負するボタンをクリックした時
+勝負しないボタンをクリックした時</t>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    pokerPhase・・・ポーカーが今どのフェイズかを示す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   pokerPhase・・・ポーカーが今どのフェイズかを示す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ランキング表示する」ボタンをクリックした時</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング情報を取得するためのリクエストを投げて、ランキング画面を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: LoginServicePopUp</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    username・・・ログインユーザー名。</t>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleClose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「閉じる」ボタンをクリックした時</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインポップアップを閉じる</t>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: MoneyInfo</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　money・・・所持金金額</t>
+    <rPh sb="9" eb="12">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札交換ボタンをクリックした時</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: PokerStart.js</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: App.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通ヘッダー
+ログインポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: CloseButton</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>handleToClose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング表示画面を閉じる</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面
+ユーザー登録画面
+ポーカースタート画面
+ランキング表示画面
+ポーカープレイ画面</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポーカーの手札交換】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面
+-------------------------------------
+・ErrorMessageコンポーネントを追加
+ユーザー登録画面
+-------------------------------------
+・ErrorMessageコンポーネントを追加
+ポーカースタート画面
+-------------------------------------
+・ErrorMessageコンポーネントを追加
+・共通ヘッダーにランキング表示用ボタンを追加したため、不要になったランキング表示用リンクを削除
+ランキング表示画面
+-------------------------------------
+・ポーカースタート画面へのリンクを閉じるボタンに変更
+ポーカープレイ画面
+・ErrorMessageコンポーネントを追加
+-------------------------------------
+全般
+・コンポーネントの表示を制御するために各コンポーネントにpokerPhaseフィールドを追加
+【ベット】
+・MoneyInfo及びErrorMessageコンポーネントを追加
+【結果表示】
+・ErrorMessageコンポーネントを追加
+・勝負しなかった際、そのことを表すメッセージを表示するために、WinOrLossJudgeコンポーネントにisBattleフィールドを追加</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="321" eb="323">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="329" eb="330">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="412" eb="414">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="424" eb="426">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="427" eb="429">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="434" eb="435">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="459" eb="461">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="479" eb="480">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="506" eb="508">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="508" eb="510">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="537" eb="539">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="544" eb="545">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="551" eb="552">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="559" eb="561">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="603" eb="605">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1154,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,6 +1555,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,23 +1584,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198537</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190</xdr:rowOff>
+      <xdr:colOff>686282</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182207</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99AA8C8-3226-4749-843A-53A78EAD8716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52804D25-2146-468E-B0DA-A9012E54F917}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +1622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716280" y="327660"/>
-          <a:ext cx="4808637" cy="2187130"/>
+          <a:off x="448235" y="403412"/>
+          <a:ext cx="5563082" cy="2575783"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,15 +1699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1897380</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>1924274</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2169523</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>191587</xdr:rowOff>
+      <xdr:colOff>2196417</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3329</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1332,8 +1722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4655820" y="1051560"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="4685403" y="648148"/>
+          <a:ext cx="272143" cy="287510"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1373,15 +1763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1082040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>1987476</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1354183</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214447</xdr:rowOff>
+      <xdr:colOff>2259619</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115836</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1396,8 +1786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3840480" y="2217420"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="4748605" y="2392232"/>
+          <a:ext cx="272143" cy="287510"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1501,15 +1891,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1813560</xdr:colOff>
+      <xdr:colOff>1705983</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>140297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2085703</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>46807</xdr:rowOff>
+      <xdr:colOff>2008094</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1524,8 +1914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7139940" y="1592580"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="7031018" y="1538791"/>
+          <a:ext cx="302111" cy="316902"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1566,14 +1956,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1743892</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2016035</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23947</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1588,8 +1978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7070272" y="4084320"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="7068927" y="3299908"/>
+          <a:ext cx="272143" cy="291992"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1626,6 +2016,132 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1144794</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1416937</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>205484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8931531-80D1-4709-9FAF-CA1B506FB864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905923" y="2714961"/>
+          <a:ext cx="272143" cy="287511"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1915758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2187901</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>115837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8F5F07-8F60-47B4-A9C5-E659FB7348DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7240793" y="5888467"/>
+          <a:ext cx="272143" cy="287511"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1633,23 +2149,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>324727</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED31EF4E-DA24-4766-B17B-84A012E9775A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B74F45-D185-47D4-AD16-362220B3C0B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,8 +2187,191 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="731520" y="358140"/>
-          <a:ext cx="4957687" cy="2293620"/>
+          <a:off x="525780" y="457200"/>
+          <a:ext cx="5593565" cy="2606266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>630283</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>218930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF16068B-E265-4B2F-88EA-9FEECD697EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358140" y="3131820"/>
+          <a:ext cx="272143" cy="287510"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536986</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>809129</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CA2A66-81AE-4D19-AC79-1E8E98E07F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714526" y="495300"/>
+          <a:ext cx="272143" cy="291992"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598423</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C52FDD-7F39-4521-A9DC-9BEF8DEBF8D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="475130" y="493059"/>
+          <a:ext cx="5502117" cy="2606266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1747,16 +2446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60961</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167641</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>212465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289561</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175261</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1771,8 +2470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4754881" y="1996441"/>
-          <a:ext cx="228600" cy="236220"/>
+          <a:off x="6336256" y="3009453"/>
+          <a:ext cx="228600" cy="240702"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1801,9 +2500,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
+            <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1875,16 +2573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>335281</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66338</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563881</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294938</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1899,8 +2597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6370321" y="1623061"/>
-          <a:ext cx="228600" cy="236220"/>
+          <a:off x="4772809" y="937262"/>
+          <a:ext cx="228600" cy="240702"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1937,10 +2635,137 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>319145</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>224567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547745</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>232187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12DEB2E-AA34-4F29-83BB-6C4BF69FC354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6370321" y="1623061"/>
+          <a:ext cx="228600" cy="240702"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>131782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277010</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192F68F7-5D05-40AB-B228-E24A8A2110BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4754881" y="1996441"/>
+          <a:ext cx="228600" cy="240702"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2188,23 +3013,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1774372</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>849086</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>109946</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2177144</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143691</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8ECE504-BEF4-4E81-B953-979ACBB767D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFEAE55-172F-4A32-9DCE-CE68C49506F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,15 +3037,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4811486" y="859971"/>
-          <a:ext cx="1318260" cy="426720"/>
+          <a:off x="2198915" y="1034143"/>
+          <a:ext cx="3015343" cy="261257"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2240,17 +3072,237 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2188029</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2460172</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FC45BB-3015-4979-A76D-97B4B76F1954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225143" y="1306287"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ランキング一覧</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>631372</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>206827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4455309-BCFA-4B4F-B380-78CFA4804759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1034143" y="6096000"/>
+          <a:ext cx="272143" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2260,27 +3312,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:colOff>35859</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>61375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30669</xdr:rowOff>
+      <xdr:colOff>242979</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72651DB-A6D5-4260-9E4F-911EF3F5724D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8558FBBB-262F-4F0F-95D2-FF500DC15FB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,8 +3354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632460" y="365760"/>
-          <a:ext cx="4793395" cy="2179509"/>
+          <a:off x="35859" y="358588"/>
+          <a:ext cx="5585944" cy="2591025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,19 +3751,69 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3130216</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2979641-3C7D-4B9A-87A4-2EE4C4F05912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="886691" y="1039091"/>
+          <a:ext cx="5471634" cy="2499577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>138947</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2728,7 +3830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2755,13 +3857,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1763487</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2821,13 +3923,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2884,13 +3986,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>468086</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>206828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1665514</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2950,13 +4052,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3016,13 +4118,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1774373</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>130626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2830287</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>174169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3082,13 +4184,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>195945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3145,13 +4247,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1796143</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2144485</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3208,13 +4310,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1915886</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2264228</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3271,13 +4373,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3335,13 +4437,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>141515</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>65311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3401,13 +4503,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2547257</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2906486</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3464,13 +4566,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2797627</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3156856</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>87087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3527,14 +4629,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2852057</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3189514</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3549,7 +4651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9459686" y="2188028"/>
+          <a:off x="9459686" y="7271656"/>
           <a:ext cx="337457" cy="261257"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3589,15 +4691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2721429</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119745</xdr:rowOff>
+      <xdr:colOff>2786743</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3069771</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>32659</xdr:rowOff>
+      <xdr:colOff>3135085</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>87088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3612,7 +4714,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9329058" y="4463145"/>
+          <a:off x="9394372" y="9775374"/>
           <a:ext cx="348342" cy="370114"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3652,15 +4754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1132114</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:colOff>1785257</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1491343</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
+      <xdr:colOff>2144486</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3675,7 +4777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11070771" y="7347858"/>
+          <a:off x="11723914" y="13944601"/>
           <a:ext cx="359229" cy="337456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3716,13 +4818,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1034145</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>227952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3739,7 +4841,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3766,13 +4868,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1251858</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>54426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3124201</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3832,13 +4934,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>65316</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>152396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>968830</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>195939</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3898,13 +5000,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3167744</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3961,14 +5063,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1121230</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>44531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1469572</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>149429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3983,8 +5085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7728859" y="14086113"/>
-          <a:ext cx="348342" cy="326571"/>
+          <a:off x="7715994" y="28515622"/>
+          <a:ext cx="348342" cy="340425"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4024,13 +5126,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1796145</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1393374</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4090,13 +5192,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2013860</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2329544</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4153,13 +5255,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2394862</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>174167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>87090</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4219,13 +5321,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1045031</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1317174</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4282,13 +5384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>21774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4346,13 +5448,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2884715</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3189515</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4408,15 +5510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2960915</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>174170</xdr:rowOff>
+      <xdr:colOff>2850079</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>215734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3298372</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>206827</xdr:rowOff>
+      <xdr:colOff>3187536</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>12863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4431,8 +5533,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9568544" y="14118770"/>
-          <a:ext cx="337457" cy="261257"/>
+          <a:off x="9444843" y="29628934"/>
+          <a:ext cx="337457" cy="268184"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4471,15 +5573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2960915</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>206827</xdr:rowOff>
+      <xdr:colOff>2933206</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>220681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3233058</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:colOff>3205349</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>35624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4494,8 +5596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9568544" y="16894627"/>
-          <a:ext cx="272143" cy="272143"/>
+          <a:off x="9527970" y="32917408"/>
+          <a:ext cx="272143" cy="285998"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4535,13 +5637,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>119741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>925285</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>60294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4558,7 +5660,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4585,13 +5687,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2398124</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>109946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2720685</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>176680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4649,13 +5751,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2811779</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>77288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3134340</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>144022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4709,68 +5811,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>202475</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1346367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>212767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2687832</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>72935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A8B9C5-859E-4DEA-95ED-9D48255E867C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="674914" y="888275"/>
-          <a:ext cx="5256861" cy="2385060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1235531</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>185058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1507674</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
+      <xdr:colOff>1618510</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4785,8 +5837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479474" y="2013858"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="4574476" y="1390403"/>
+          <a:ext cx="272143" cy="296882"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4825,16 +5877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3030584</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24147</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3302727</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>32655</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>296290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4849,8 +5901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6274527" y="892628"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="6618911" y="608610"/>
+          <a:ext cx="272143" cy="296881"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4891,13 +5943,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1904999</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2699657</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4962,18 +6014,760 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2710543</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>751113</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFEAE55-172F-4A32-9DCE-CE68C49506F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5954486" y="23709086"/>
+          <a:ext cx="1404256" cy="283027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="楕円 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B1410B-2458-42C2-8D03-484E221617D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="23338972"/>
+          <a:ext cx="283028" cy="304798"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2858985</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>104898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3142013</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>188024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="楕円 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDD8CE1-5F93-429C-8A30-BCF09BE5C7F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9453749" y="35627953"/>
+          <a:ext cx="283028" cy="318653"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3228109</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="楕円 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D08C20-840A-4E52-AC56-C7CAA162C1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6456218" y="2438400"/>
+          <a:ext cx="359229" cy="311727"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2922321</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3259778</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="楕円 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFFAE8F-293B-4561-BC62-BE63B46D223A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6150430" y="5217224"/>
+          <a:ext cx="337457" cy="268184"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1316182</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1675411</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="楕円 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9690698-79F5-4AD1-BF41-E17DACED11A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4544291" y="1842655"/>
+          <a:ext cx="359229" cy="311727"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1342904</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1680361</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="楕円 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B34EE6-9CFE-4D07-835A-43FC578D8358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4571013" y="2404751"/>
+          <a:ext cx="337457" cy="268184"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1546860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>54564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583C937-BCF8-49BC-948D-EB0E0007529D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480060" y="594361"/>
+          <a:ext cx="4137660" cy="374603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1691640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1963783</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>37801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052A3989-558B-4D2D-BBB9-EBB1E2335A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="655320"/>
+          <a:ext cx="272143" cy="296881"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7F197F-8CF5-42F8-AA62-C1BE12CB0E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="1905000"/>
+          <a:ext cx="272143" cy="296881"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48E62EB0-9878-4DA4-A158-09F2B3C5AF48}" name="テーブル3" displayName="テーブル3" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{48E62EB0-9878-4DA4-A158-09F2B3C5AF48}" name="テーブル3" displayName="テーブル3" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FA698B92-8206-4E79-9A3F-6241D1B7030E}" name="バージョン"/>
     <tableColumn id="2" xr3:uid="{13988D42-FEC5-4D57-BD81-3CA75F8CDAD8}" name="新規作成"/>
     <tableColumn id="3" xr3:uid="{D7D4BEDF-7FF1-4D06-9E2D-E1831136CB44}" name="改修対象"/>
     <tableColumn id="5" xr3:uid="{9DC3BAF8-DDB5-4B22-8E92-108BF16AD42D}" name="削除対象"/>
     <tableColumn id="4" xr3:uid="{97CD205E-99BD-4F9F-BB9A-9A1FE1A7DD4D}" name="改修内容"/>
+    <tableColumn id="6" xr3:uid="{319ED3E3-7FE3-425E-A87F-9FF99F0C7D7C}" name="作業日"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5276,7 +7070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1899-6DEA-4ED7-827A-D3D1F71B7DC1}">
-  <dimension ref="B1:G24"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5292,27 +7086,27 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
@@ -5322,118 +7116,163 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>78</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>6</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
-        <v>79</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>80</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>83</v>
+      <c r="E15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>86</v>
+      <c r="E16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>88</v>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E21" t="s">
-        <v>32</v>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
-        <v>33</v>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5444,10 +7283,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AB03C6-98A8-4084-9766-9BF67A033327}">
+  <dimension ref="B1:D21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="32.8984375" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" customWidth="1"/>
+    <col min="4" max="4" width="36.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11575CE9-7E20-4F5E-A819-2BB6556E0F60}">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5456,130 +7371,155 @@
     <col min="13" max="13" width="42.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K3" t="s">
+    <row r="20" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K24" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K8" t="s">
+      <c r="L24" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K13" t="s">
+      <c r="M24" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="K16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K18" s="1" t="s">
+    <row r="25" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="1" t="s">
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.45">
+      <c r="K26" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5589,12 +7529,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803667A2-846E-4FFE-B0B5-D5A40B329EBC}">
-  <dimension ref="C2:E26"/>
+  <dimension ref="C2:E32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5606,7 +7546,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.45">
@@ -5616,22 +7556,22 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.45">
@@ -5639,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>1</v>
@@ -5650,10 +7590,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.45">
@@ -5661,21 +7601,35 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6B724-1F43-42C3-A505-1E87519749D1}">
   <dimension ref="B1:L20"/>
   <sheetViews>
@@ -5695,53 +7649,53 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="45.19921875" customWidth="1"/>
+    <col min="11" max="11" width="49.59765625" customWidth="1"/>
     <col min="12" max="12" width="33.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
@@ -5749,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>1</v>
@@ -5757,38 +7711,38 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5798,12 +7752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B4B58-4CE9-4C8F-B454-5DFAE4BF85B4}">
-  <dimension ref="B2:I124"/>
+  <dimension ref="B2:I152"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5813,615 +7767,798 @@
     <col min="5" max="5" width="43.69921875" customWidth="1"/>
     <col min="6" max="6" width="31.09765625" customWidth="1"/>
     <col min="7" max="7" width="50.09765625" customWidth="1"/>
-    <col min="8" max="8" width="58.69921875" customWidth="1"/>
+    <col min="8" max="8" width="59.3984375" customWidth="1"/>
     <col min="9" max="9" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E5" t="s">
+      <c r="G27" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
+    <row r="29" spans="5:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F24" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C53" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="72" x14ac:dyDescent="0.45">
+      <c r="C75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="1" t="s">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G78" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F76" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F80" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C86" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.45">
       <c r="F92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.45">
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.45">
       <c r="F95" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F124" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C126" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C131" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C132" t="s">
+        <v>141</v>
+      </c>
+      <c r="F132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F99" t="s">
+      <c r="H134" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F143" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F100" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F106" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C110" t="s">
-        <v>47</v>
-      </c>
-      <c r="F110" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F111" t="s">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F145" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F150" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F152" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C112" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C113" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C114" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C115" t="s">
-        <v>48</v>
-      </c>
-      <c r="F115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C116" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F119" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F120" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F121" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F122" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F123" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6432,12 +8569,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0A9CF3-8339-4D35-863A-4742E954BC82}">
+  <dimension ref="B1:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="45.19921875" customWidth="1"/>
+    <col min="4" max="4" width="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.8984375" customWidth="1"/>
+    <col min="9" max="9" width="42.19921875" customWidth="1"/>
+    <col min="10" max="10" width="72.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD88CBB9-E988-4B1E-8F8A-3E55C8CCD568}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6447,71 +8662,104 @@
     <col min="3" max="3" width="30.296875" customWidth="1"/>
     <col min="4" max="4" width="28.19921875" customWidth="1"/>
     <col min="5" max="5" width="55.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="7">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43491</v>
       </c>
     </row>
   </sheetData>

--- a/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
+++ b/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\コンポーネント図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009B9363-F43A-4912-9D7B-E5004FEC7CBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6EE0E-90BC-412B-82A1-0CEF1844F7C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
   </bookViews>
@@ -1600,7 +1600,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52804D25-2146-468E-B0DA-A9012E54F917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1650,7 @@
         <xdr:cNvPr id="3" name="楕円 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBA5319-96A5-4471-861D-802A2C516FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1714,7 @@
         <xdr:cNvPr id="4" name="楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAD519A-7D33-4722-AED3-CB594B2A3C75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1778,7 @@
         <xdr:cNvPr id="5" name="楕円 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F9D956-E2E1-4B23-960C-3535F1758A25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1842,7 @@
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E834F6D6-F9CB-4010-B71B-56DA2CD7DA54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
         <xdr:cNvPr id="7" name="楕円 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF70978-56DB-499A-98DF-89E3E68D7F52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1970,7 @@
         <xdr:cNvPr id="8" name="楕円 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CD1571-6977-4C44-ACE7-4D0A76A12D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2034,7 @@
         <xdr:cNvPr id="11" name="楕円 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8931531-80D1-4709-9FAF-CA1B506FB864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2097,7 @@
         <xdr:cNvPr id="13" name="楕円 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8F5F07-8F60-47B4-A9C5-E659FB7348DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2165,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B74F45-D185-47D4-AD16-362220B3C0B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2215,7 @@
         <xdr:cNvPr id="4" name="楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF16068B-E265-4B2F-88EA-9FEECD697EED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2279,7 @@
         <xdr:cNvPr id="5" name="楕円 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CA2A66-81AE-4D19-AC79-1E8E98E07F1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2348,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C52FDD-7F39-4521-A9DC-9BEF8DEBF8D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2398,7 @@
         <xdr:cNvPr id="3" name="楕円 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D1C0CD-CDD0-4FCB-99C7-FC0E952EE869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2462,7 @@
         <xdr:cNvPr id="4" name="楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090E8652-BAF3-454B-A94E-58F7E3C1144E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2525,7 @@
         <xdr:cNvPr id="5" name="楕円 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717A2E9F-84F2-4380-875D-F95D8EC0622F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2589,7 @@
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A5332D-178C-4CF5-A005-929133C45BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="9" name="楕円 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12DEB2E-AA34-4F29-83BB-6C4BF69FC354}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192F68F7-5D05-40AB-B228-E24A8A2110BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2785,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E63414-81D1-4390-ACA9-D2630E357C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2835,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD216323-B23B-4F16-A1EC-5561F5BE2651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2901,7 @@
         <xdr:cNvPr id="9" name="楕円 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B7D3FC-EBD6-4D03-BCC3-992AF323573E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2965,7 @@
         <xdr:cNvPr id="16" name="楕円 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14429C1-69E4-4CFB-9657-9D1A2865B3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3029,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFEAE55-172F-4A32-9DCE-CE68C49506F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3201,7 @@
         <xdr:cNvPr id="10" name="楕円 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FC45BB-3015-4979-A76D-97B4B76F1954}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3264,7 @@
         <xdr:cNvPr id="11" name="楕円 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4455309-BCFA-4B4F-B380-78CFA4804759}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3332,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8558FBBB-262F-4F0F-95D2-FF500DC15FB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3382,7 @@
         <xdr:cNvPr id="3" name="楕円 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B69705-DA23-4996-84DA-2C39CD6BE8A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3446,7 @@
         <xdr:cNvPr id="4" name="楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78688522-44CB-4A71-BF07-851223E733F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3510,7 @@
         <xdr:cNvPr id="5" name="楕円 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D47978-3206-412B-8054-7D802FDD58EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B965A7C-D2C7-4836-9F8A-C4393BA09E0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3638,7 +3638,7 @@
         <xdr:cNvPr id="7" name="楕円 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545277B-34F0-4F58-9EC3-90BA5EC4EE75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,7 +3702,7 @@
         <xdr:cNvPr id="8" name="楕円 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806F7209-E83A-492B-8F03-A5E4ACE376DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,7 +3771,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2979641-3C7D-4B9A-87A4-2EE4C4F05912}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,7 +3821,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2F7575-F3D7-4339-834E-C09B4EDAEFDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3871,7 +3871,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A60588-79B5-492F-B33A-9EC9B2FD6A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,7 +3937,7 @@
         <xdr:cNvPr id="6" name="楕円 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8C3B59-9F85-4984-8AAB-A70B8261501F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +4000,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA37EAA-15E3-4041-B3A9-C23FACB5A94D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4066,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9D2F88-E923-4439-8538-47D7C2BC9BCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4132,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE81088-AFA1-4CA4-82E6-0D15B112F9F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,7 +4198,7 @@
         <xdr:cNvPr id="12" name="楕円 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBC8533-AED6-4637-83E5-5354A61B71AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4261,7 +4261,7 @@
         <xdr:cNvPr id="13" name="楕円 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777D79FA-8F62-4CAB-91DD-711BE87FA943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,7 +4324,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E355291C-F915-45FA-9D20-4FBA17CB3712}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +4387,7 @@
         <xdr:cNvPr id="15" name="楕円 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA5FF72-3F0C-466F-822E-A8EB2EBF916B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,7 +4451,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF37B12-1050-404E-8352-139B19F3CB92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4517,7 +4517,7 @@
         <xdr:cNvPr id="17" name="楕円 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2860F4C7-987C-4FCC-92F0-33E5792B0EB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4580,7 @@
         <xdr:cNvPr id="18" name="楕円 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9400A776-3161-4083-B683-DE96C67A9B57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4643,7 +4643,7 @@
         <xdr:cNvPr id="19" name="楕円 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2175A88F-DCE8-4727-AD02-22F214C86B3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4706,7 +4706,7 @@
         <xdr:cNvPr id="20" name="楕円 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2E82CE-EE87-4E98-BFFF-58E045FDB563}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4769,7 +4769,7 @@
         <xdr:cNvPr id="21" name="楕円 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EDC8AA-2DA5-472D-B43D-FABCAE822B5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4832,7 @@
         <xdr:cNvPr id="39" name="図 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD280E1B-F8E5-4269-89DA-570E1E881045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4882,7 @@
         <xdr:cNvPr id="40" name="正方形/長方形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2739E8-B469-4949-BE05-D1BC958713BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4948,7 +4948,7 @@
         <xdr:cNvPr id="41" name="正方形/長方形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B51CEDB-4315-4980-8C7B-70CC98EB99E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5014,7 +5014,7 @@
         <xdr:cNvPr id="42" name="楕円 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426CEE49-FE60-43FB-868C-8FC9ED9A80F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5077,7 +5077,7 @@
         <xdr:cNvPr id="43" name="楕円 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E620E48-F69A-48D0-96DE-3C37D39AF2A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5140,7 +5140,7 @@
         <xdr:cNvPr id="44" name="正方形/長方形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A68C31-9785-47C1-8658-05BB92DF1F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5206,7 +5206,7 @@
         <xdr:cNvPr id="45" name="楕円 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF75556B-814F-410B-A77A-295022A4AB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5269,7 +5269,7 @@
         <xdr:cNvPr id="46" name="正方形/長方形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8EE87D-E652-4CBA-B0CF-4D2283B6BAE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5335,7 @@
         <xdr:cNvPr id="47" name="楕円 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB62B54C-CA5B-4236-BB61-7144B6D76586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5398,7 +5398,7 @@
         <xdr:cNvPr id="48" name="楕円 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4985586-39B8-484F-BF94-DBC09B135B34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5462,7 +5462,7 @@
         <xdr:cNvPr id="49" name="楕円 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAC116E-F0FE-4CBA-A24D-C27037788EA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5525,7 +5525,7 @@
         <xdr:cNvPr id="50" name="楕円 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28999B08-F4EC-4C44-8308-2B822C19456F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5588,7 +5588,7 @@
         <xdr:cNvPr id="51" name="楕円 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01014A6E-E334-4BCD-BF64-0D878D845CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5651,7 +5651,7 @@
         <xdr:cNvPr id="52" name="図 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE93695-7D90-4624-8091-A8B1063CDE2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5701,7 +5701,7 @@
         <xdr:cNvPr id="53" name="楕円 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC4FC45-34C5-48C4-901D-978D7C926CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5765,7 +5765,7 @@
         <xdr:cNvPr id="54" name="楕円 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2463E7-F598-420D-A399-A58BEC2A153A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5829,7 +5829,7 @@
         <xdr:cNvPr id="56" name="楕円 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24227A6-44A5-4F40-8D6D-59F61C04D253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5893,7 +5893,7 @@
         <xdr:cNvPr id="57" name="楕円 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FA05D3-6A32-4070-9932-235CBC7DAC17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5957,7 +5957,7 @@
         <xdr:cNvPr id="2" name="フローチャート: 処理 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B454ADF6-331C-40CB-A495-D88CE83D049F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6032,7 +6032,7 @@
         <xdr:cNvPr id="58" name="正方形/長方形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFEAE55-172F-4A32-9DCE-CE68C49506F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6204,7 @@
         <xdr:cNvPr id="60" name="楕円 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B1410B-2458-42C2-8D03-484E221617D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6267,7 +6267,7 @@
         <xdr:cNvPr id="61" name="楕円 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDD8CE1-5F93-429C-8A30-BCF09BE5C7F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6330,7 @@
         <xdr:cNvPr id="63" name="楕円 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D08C20-840A-4E52-AC56-C7CAA162C1B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6393,7 +6393,7 @@
         <xdr:cNvPr id="64" name="楕円 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFFAE8F-293B-4561-BC62-BE63B46D223A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6456,7 +6456,7 @@
         <xdr:cNvPr id="65" name="楕円 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9690698-79F5-4AD1-BF41-E17DACED11A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6519,7 +6519,7 @@
         <xdr:cNvPr id="66" name="楕円 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B34EE6-9CFE-4D07-835A-43FC578D8358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6587,7 +6587,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583C937-BCF8-49BC-948D-EB0E0007529D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6645,7 +6645,7 @@
         <xdr:cNvPr id="3" name="楕円 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052A3989-558B-4D2D-BBB9-EBB1E2335A67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6709,7 +6709,7 @@
         <xdr:cNvPr id="4" name="楕円 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7F197F-8CF5-42F8-AA62-C1BE12CB0E8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7072,7 +7072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1899-6DEA-4ED7-827A-D3D1F71B7DC1}">
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8574,7 +8574,7 @@
   <dimension ref="B1:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
+++ b/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\コンポーネント図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6EE0E-90BC-412B-82A1-0CEF1844F7C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF54DA-8660-4ADB-9E62-F28249549E56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="174">
   <si>
     <t>イベントハンドラ名</t>
     <rPh sb="8" eb="9">
@@ -583,20 +583,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンポーネント名: LoginHeader</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名: LoginForm</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　username・・・入力したユーザー名</t>
     <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
@@ -682,55 +668,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンポーネント名: UserRegisterLink</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>handleToUserRegister</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ユーザー登録はこちら」リンクにクリックした時</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録画面に遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイル名: UserRegister.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名:UserRegisterHeader</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名: UserRegisterForm</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -807,36 +745,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンポーネント名: RankingHeader</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ポーカースタート画面へ」リンクにクリックした時</t>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
     <rPh sb="23" eb="24">
       <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名: RankingContent</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ranking・・・表示するランキング内容</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,13 +800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンポーネント名: playButton</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>handlePlaySubmit</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -945,13 +852,6 @@
   </si>
   <si>
     <t>【ベット】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名: BetForm</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1074,20 +974,6 @@
     <t xml:space="preserve">   isBattle・・・勝負するか</t>
     <rPh sb="14" eb="16">
       <t>ショウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名: ErrorMessage</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　message・・・表示するメッセージ</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1470,6 +1356,346 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コンポーネント名: PlayButton</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: Login</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　errorMessage・・・表示するエラーメッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　isOpen・・・ポップアップを開くかどうかフラグ</t>
+    <rPh sb="17" eb="18">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名: LoginServicePopUp.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名:UserRegister</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　errorMessage・・・表示するメッセージ</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　rank・・・表示するランキングの順位</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　rankingItem・・・表示する一列分のユーザー名と所持金</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチレツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: RankingItem</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: Ranking</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　handleToClose・・・ランキングポップアップを閉じるための関数</t>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ranking・・・表示するランキング情報</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: Bet</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    betMoney・・・所持金</t>
+    <rPh sb="15" eb="18">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    updateBetMoney・・・所持金更新する関数</t>
+    <rPh sb="21" eb="24">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    jokerIncluded・・・ジョーカーを含むかどうか</t>
+    <rPh sb="26" eb="27">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    pokerPrepare・・・ポーカーの初期情報をstateにセットする関数</t>
+    <rPh sb="24" eb="26">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    pokerPhaseChange・・・ポーカーのフェイズを変更する</t>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　isOpen・・・ランキングポップアップを表示するかどうか</t>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ranking・・・ランキング情報</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面
+ログインポップアップ
+ユーザー登録画面
+ランキング表示画面
+ポーカースタート画面
+ポーカープレイ画面
+共通ヘッダー</t>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面
+-----------------------------------
+・以下のコンポーネントを1つのLoginコンポーネントに統合した
+　　- UserRegisterHeaderコンポーネント
+　　- ErrorMessageコンポーネント
+　　- UserRegisterLinkコンポーネント
+　　- LoginHeaderコンポーネント
+・不要なイベントハンドラ「handleToUserRegister」を削除
+ログインポップアップ
+-------------------------------------
+・ファイル名を「App.js」から「LoginServicePopUp.js」に変更
+・stateに「isOpen」を追加
+ユーザー登録画面
+-------------------------------------
+・以下のコンポーネントを1つのUserRegisterコンポーネントに統合した
+　　- LoginFormコンポーネント
+　　- ErrorMessageコンポーネント
+　　- UserRegisterFormコンポーネント
+ポーカースタート画面
+-----------------------------------
+・ErrorMessageコンポーネントが不要なため、削除
+・画面から、エラーメッセージ部分を削除
+ランキング表示画面
+-----------------------------------
+・RankingHeaderコンポーネントは不要なため削除
+・Rankingの1要素を描画するRankingItemコンポーネントを追加
+ポーカープレイ画面
+-----------------------------------
+【ベット】
+・ファイル名を「PokerField.js」から「Bet.js」に変更
+・BetForm・ErrorMessageコンポーネントをBetコンポーネントにまとめた。
+【結果表示】
+・ErrorMessageコンポーネントが不要なため、削除
+共通ヘッダー
+-------------------------------
+・state「betMoney」を削除して、「isOpen」・「ranking」を追加</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="309" eb="311">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="328" eb="330">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="338" eb="340">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="561" eb="563">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="567" eb="569">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="571" eb="573">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="584" eb="586">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="587" eb="589">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="596" eb="598">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="598" eb="600">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="659" eb="661">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="664" eb="666">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="677" eb="679">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="680" eb="682">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="703" eb="705">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="714" eb="716">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="764" eb="765">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="792" eb="794">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="843" eb="845">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="845" eb="847">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="870" eb="872">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="876" eb="878">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="880" eb="882">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="936" eb="938">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="960" eb="962">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1492,15 +1718,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1532,13 +1764,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1562,6 +1831,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,134 +1985,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1924274</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>181983</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2196417</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3329</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4685403" y="648148"/>
-          <a:ext cx="272143" cy="287510"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1987476</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61408</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2259619</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115836</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="楕円 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4748605" y="2392232"/>
-          <a:ext cx="272143" cy="287510"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1691640</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1883,260 +2042,6 @@
             <a:t>1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1705983</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2008094</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="楕円 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7031018" y="1538791"/>
-          <a:ext cx="302111" cy="316902"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1743892</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>36755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2016035</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7068927" y="3299908"/>
-          <a:ext cx="272143" cy="291992"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1144794</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>151055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1416937</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>205484</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="楕円 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3905923" y="2714961"/>
-          <a:ext cx="272143" cy="287511"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1915758</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61408</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2187901</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>115837</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="楕円 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7240793" y="5888467"/>
-          <a:ext cx="272143" cy="287511"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>4</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2447,69 +2352,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>285080</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>212465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>513680</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>220084</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="楕円 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6336256" y="3009453"/>
-          <a:ext cx="228600" cy="240702"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -2566,197 +2408,6 @@
             <a:t>1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66338</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4933</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>294938</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12552</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="楕円 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772809" y="937262"/>
-          <a:ext cx="228600" cy="240702"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>319145</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>224567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547745</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>232187</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="楕円 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6370321" y="1623061"/>
-          <a:ext cx="228600" cy="240702"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>48410</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>277010</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139402</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4754881" y="1996441"/>
-          <a:ext cx="228600" cy="240702"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3011,304 +2662,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>849086</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2177144</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2198915" y="1034143"/>
-          <a:ext cx="3015343" cy="261257"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーメッセージ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2188029</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2460172</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5225143" y="1306287"/>
-          <a:ext cx="272143" cy="283027"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>359229</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>631372</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>206827</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="楕円 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1034143" y="6096000"/>
-          <a:ext cx="272143" cy="283027"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3366,16 +2719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164504</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355963</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>115387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>436647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>97458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3390,8 +2743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2766060" y="60960"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="2181563" y="742278"/>
+          <a:ext cx="272143" cy="287509"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3495,15 +2848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>556709</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>256903</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>191587</xdr:rowOff>
+      <xdr:colOff>158292</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>227446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3518,8 +2871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008120" y="1508760"/>
-          <a:ext cx="272143" cy="283027"/>
+          <a:off x="3918474" y="1105349"/>
+          <a:ext cx="273936" cy="287509"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3624,13 +2977,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>660763</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>39187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3688,13 +3041,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>350519</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>155090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624455</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>209517</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3743,6 +3096,128 @@
             <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412376</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18230DFD-DDFD-45AA-92FA-C83F710482DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613647" y="1066799"/>
+          <a:ext cx="2160494" cy="1084729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86139640-54EB-4521-B812-D637267DE8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1703294" y="1084729"/>
+          <a:ext cx="2178424" cy="295836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3807,13 +3282,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>391887</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>138947</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3857,13 +3332,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1763487</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3923,13 +3398,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3986,13 +3461,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>468086</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>206828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1665514</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4052,13 +3527,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4118,13 +3593,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1774373</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>130626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2830287</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>174169</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4184,13 +3659,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>195945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4247,13 +3722,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1796143</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2144485</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4310,13 +3785,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1915886</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2264228</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4373,13 +3848,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>206830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4437,13 +3912,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>141515</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>65311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4503,13 +3978,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2547257</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2906486</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4566,13 +4041,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2797627</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3156856</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>87087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4629,13 +4104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2852057</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3189514</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>217713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4692,13 +4167,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2786743</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>174174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3135085</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>87088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4755,13 +4230,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1785257</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2144486</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4818,13 +4293,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1034145</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>227952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4868,13 +4343,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1251858</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>54426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3124201</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4934,13 +4409,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>65316</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>152396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>968830</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>195939</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5000,13 +4475,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3167744</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5063,13 +4538,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1121230</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>44531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1469572</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>149429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5126,13 +4601,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1796145</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1393374</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5192,13 +4667,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2013860</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2329544</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5255,13 +4730,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2394862</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>174167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>87090</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5321,13 +4796,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1045031</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1317174</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5384,13 +4859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>21774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5448,13 +4923,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2884715</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3189515</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5511,13 +4986,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2850079</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>215734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3187536</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>12863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5574,13 +5049,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2933206</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>220681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3205349</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>35624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5637,14 +5112,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>119741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>925285</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>60294</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>60295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5687,13 +5162,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2398124</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>109946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2720685</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>176680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5751,13 +5226,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2811779</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>77288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3134340</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>144022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5813,16 +5288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1346367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>212767</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>639786</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1618510</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38594</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>911929</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5837,7 +5312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4574476" y="1390403"/>
+          <a:off x="1969822" y="1916876"/>
           <a:ext cx="272143" cy="296882"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5877,16 +5352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>24147</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137555</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3224548</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>296290</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198909</xdr:rowOff>
+      <xdr:colOff>130036</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5901,7 +5376,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6618911" y="608610"/>
+          <a:off x="6452657" y="2645228"/>
           <a:ext cx="272143" cy="296881"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5943,13 +5418,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1904999</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2699657</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6017,22 +5492,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2710543</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:colOff>2410691</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>751113</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2769920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57">
+        <xdr:cNvPr id="65" name="楕円 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6040,305 +5515,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5954486" y="23709086"/>
-          <a:ext cx="1404256" cy="283027"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーメッセージ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="楕円 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="23338972"/>
-          <a:ext cx="283028" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2858985</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>104898</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3142013</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>188024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="楕円 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9453749" y="35627953"/>
-          <a:ext cx="283028" cy="318653"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3228109</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>220683</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159327</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="楕円 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6456218" y="2438400"/>
+          <a:off x="5638800" y="2078182"/>
           <a:ext cx="359229" cy="311727"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6378,22 +5555,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2922321</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>35624</xdr:rowOff>
+      <xdr:colOff>3006437</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3259778</xdr:colOff>
+      <xdr:colOff>3365666</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68281</xdr:rowOff>
+      <xdr:rowOff>62345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="楕円 63">
+        <xdr:cNvPr id="55" name="楕円 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920450F-83B0-4A5F-8653-F04D85B1D429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6401,70 +5578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6150430" y="5217224"/>
-          <a:ext cx="337457" cy="268184"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1316182</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>193964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1675411</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="楕円 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4544291" y="1842655"/>
+          <a:off x="6234546" y="4225636"/>
           <a:ext cx="359229" cy="311727"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6495,69 +5609,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1342904</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1680361</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>82135</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="楕円 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4571013" y="2404751"/>
-          <a:ext cx="337457" cy="268184"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7070,9 +6121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1899-6DEA-4ED7-827A-D3D1F71B7DC1}">
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7086,12 +6139,12 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
@@ -7101,193 +6154,87 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AB03C6-98A8-4084-9766-9BF67A033327}">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7299,12 +6246,12 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
@@ -7314,39 +6261,44 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -7358,10 +6310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11575CE9-7E20-4F5E-A819-2BB6556E0F60}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7371,155 +6323,115 @@
     <col min="13" max="13" width="42.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K19" t="s">
+      <c r="M16" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.45">
-      <c r="K26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7531,10 +6443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803667A2-846E-4FFE-B0B5-D5A40B329EBC}">
-  <dimension ref="C2:E32"/>
+  <dimension ref="C2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7546,7 +6458,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.45">
@@ -7605,31 +6517,6 @@
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7642,9 +6529,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6B724-1F43-42C3-A505-1E87519749D1}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7655,93 +6544,108 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J3" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J5" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J6" t="s">
-        <v>33</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J12" s="1" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="J16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J17" t="s">
-        <v>15</v>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="J15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J19" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7754,10 +6658,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B4B58-4CE9-4C8F-B454-5DFAE4BF85B4}">
-  <dimension ref="B2:I152"/>
+  <dimension ref="B2:I150"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7778,12 +6682,12 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.45">
@@ -7793,7 +6697,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.45">
@@ -7806,759 +6710,734 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>33</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E22" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E23" t="s">
-        <v>120</v>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E24" t="s">
-        <v>32</v>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E26" s="1" t="s">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="1" t="s">
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="1" t="s">
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="72" x14ac:dyDescent="0.45">
+      <c r="C80" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="D80" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C57" t="s">
+      <c r="E80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s">
         <v>17</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C64" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C68" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C73" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="C75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="G76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="G79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="G80" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.45">
       <c r="G81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G86" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G82" s="1" t="s">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G83" s="1" t="s">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="H88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="E85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C86" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
+    <row r="89" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="90" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F90" t="s">
-        <v>111</v>
-      </c>
+      <c r="E90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F91" t="s">
-        <v>5</v>
-      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F94" t="s">
-        <v>141</v>
-      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.45">
       <c r="F95" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F102" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F98" s="1" t="s">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F99" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C105" t="s">
-        <v>110</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="F105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F112" t="s">
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F117" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F114" t="s">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F119" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F115" t="s">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F120" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F116" t="s">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F117" t="s">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F122" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F119" t="s">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F124" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F120" t="s">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F125" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F121" t="s">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F124" t="s">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F129" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C126" t="s">
-        <v>45</v>
-      </c>
-      <c r="F126" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="F127" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C129" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C130" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C131" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C132" t="s">
-        <v>141</v>
-      </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C133" t="s">
-        <v>46</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" ht="36" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C134" t="s">
-        <v>31</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="F135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C136" t="s">
+        <v>116</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C137" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="C139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C140" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F136" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F138" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F140" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F141" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F142" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F143" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>1</v>
+      <c r="F144" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F145" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>57</v>
+      <c r="F145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F147" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F148" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F149" t="s">
-        <v>15</v>
+      <c r="F149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F150" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F151" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F152" t="s">
-        <v>33</v>
+      <c r="F150" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -8571,10 +7450,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0A9CF3-8339-4D35-863A-4742E954BC82}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8589,12 +7468,12 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
@@ -8604,39 +7483,44 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -8649,10 +7533,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD88CBB9-E988-4B1E-8F8A-3E55C8CCD568}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8682,7 +7566,7 @@
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.45">
@@ -8709,6 +7593,9 @@
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
@@ -8727,7 +7614,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>73</v>
@@ -8736,7 +7623,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7">
         <v>43485</v>
@@ -8744,23 +7631,46 @@
     </row>
     <row r="5" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7">
         <v>43491</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
+++ b/docs/詳細設計/コンポーネント図/javaでポーカー詳細設計(画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\コンポーネント図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF54DA-8660-4ADB-9E62-F28249549E56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD75BBA8-68F5-47C4-AD87-C7AEA5DAEF1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0D57BD4-A07A-46C3-8F0F-757B4A877B74}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="185">
   <si>
     <t>イベントハンドラ名</t>
     <rPh sb="8" eb="9">
@@ -1692,6 +1692,105 @@
       <t>サクジョ</t>
     </rPh>
     <rPh sb="960" eb="962">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  money・・・所持金</t>
+    <rPh sb="10" eb="13">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  betMoney・・・ベット額</t>
+    <rPh sb="16" eb="17">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  isBattle・・・勝負するか</t>
+    <rPh sb="13" eb="15">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  afterPokerMoney・・・勝負後の所持金</t>
+    <rPh sb="20" eb="22">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名: AfterPokerPlayMoney</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   isBattle・・・勝負するか</t>
+    <rPh sb="14" eb="16">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   money・・・所持金</t>
+    <rPh sb="11" eb="14">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーカープレイ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポーカーの手札交換】
+・PokerFieldコンポーネントのstateに以下を追加しました。
+　　money
+       betMoney
+       isBattle
+       afterPokerMoney
+【結果表示】
+・勝負後の所持金を表示するAfterPokerPlayMoneyコンポーネントを追加しました。</t>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1807,7 +1906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1849,6 +1948,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4230,13 +4344,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1785257</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2144486</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4293,13 +4407,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1034145</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>227952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4329,8 +4443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1349829" y="11430000"/>
-          <a:ext cx="6291945" cy="3885552"/>
+          <a:off x="1330036" y="27764509"/>
+          <a:ext cx="6298873" cy="3996388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4343,13 +4457,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1251858</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>54426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3124201</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4409,13 +4523,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>65316</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>152396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>968830</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>195939</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4475,13 +4589,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3167744</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4538,13 +4652,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1121230</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>44531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1469572</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>149429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4600,14 +4714,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1796145</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:colOff>1967346</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1393374</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:colOff>1219201</xdr:colOff>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4623,8 +4737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5040088" y="14543313"/>
-          <a:ext cx="2960915" cy="881743"/>
+          <a:off x="5195455" y="30967877"/>
+          <a:ext cx="2618510" cy="909452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4667,13 +4781,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2013860</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2329544</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4730,13 +4844,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2394862</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>174167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>87090</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4796,13 +4910,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1045031</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1317174</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4859,13 +4973,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>21774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4923,13 +5037,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2884715</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>217715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3189515</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4986,13 +5100,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2850079</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>215734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3187536</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>12863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5049,13 +5163,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2933206</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>220681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3205349</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>35624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5112,13 +5226,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>119741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>925285</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>60295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5162,13 +5276,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2398124</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>109946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2720685</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>176680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5226,13 +5340,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2811779</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>77288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3134340</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>144022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5610,6 +5724,221 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>2</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1399310</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2202873</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>55420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B39676B-D238-431D-9506-BE25493CA9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2729346" y="31200437"/>
+          <a:ext cx="2701636" cy="387928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>勝負後の所持金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: xxxx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1491343</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>98962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="楕円 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907B82C7-5D54-49A7-A428-100A375C7E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2549236" y="31117309"/>
+          <a:ext cx="272143" cy="279071"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>５</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2840182</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3112325</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>209798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="楕円 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74052729-9132-4078-B30C-F9542272D602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9434946" y="37573527"/>
+          <a:ext cx="272143" cy="279071"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>５</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6123,8 +6452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F1899-6DEA-4ED7-827A-D3D1F71B7DC1}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6234,7 +6563,7 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6312,8 +6641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11575CE9-7E20-4F5E-A819-2BB6556E0F60}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6446,7 +6775,7 @@
   <dimension ref="C2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6531,9 +6860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6B724-1F43-42C3-A505-1E87519749D1}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6658,10 +6985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B4B58-4CE9-4C8F-B454-5DFAE4BF85B4}">
-  <dimension ref="B2:I150"/>
+  <dimension ref="A2:I164"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6939,7 +7266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -6947,7 +7274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
         <v>21</v>
       </c>
@@ -6955,7 +7282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C67" t="s">
         <v>22</v>
       </c>
@@ -6963,7 +7290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C68" t="s">
         <v>23</v>
       </c>
@@ -6977,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
         <v>119</v>
       </c>
@@ -6991,453 +7318,511 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
       <c r="C75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C76" s="1" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C77" s="1" t="s">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C78" s="1" t="s">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C79" s="1" t="s">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C83" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G83" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="72" x14ac:dyDescent="0.45">
-      <c r="C80" s="1" t="s">
+    <row r="84" spans="3:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="C84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G84" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G84" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.45">
       <c r="G85" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.45">
       <c r="G86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G87" s="1" t="s">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="G88" s="1" t="s">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G92" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="E90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C91" t="s">
+    <row r="93" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
         <v>98</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F95" t="s">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F99" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="F96" t="s">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F97" t="s">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F101" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F98" t="s">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F99" t="s">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F103" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F100" t="s">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F101" t="s">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F105" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F102" t="s">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F106" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F103" s="1" t="s">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F104" s="1" t="s">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F108" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F105" s="1" t="s">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F109" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C110" t="s">
+    <row r="113" spans="3:7" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
         <v>99</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F117" t="s">
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F121" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F119" t="s">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F123" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F120" t="s">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F124" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F121" t="s">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F125" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F122" t="s">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F123" t="s">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F124" t="s">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="F128" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F125" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.45">
-      <c r="F126" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="129" spans="3:8" x14ac:dyDescent="0.45">
       <c r="F129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F133" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C131" t="s">
-        <v>45</v>
-      </c>
-      <c r="F131" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C134" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="135" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C135" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C136" t="s">
-        <v>116</v>
-      </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C137" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C138" t="s">
-        <v>46</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" ht="36" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="F138" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C139" t="s">
-        <v>31</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+      <c r="F139" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C140" t="s">
+        <v>116</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C141" t="s">
+        <v>126</v>
+      </c>
+      <c r="F141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="C143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C144" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F141" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F144" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="145" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F145" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F146" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F147" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F152" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F149" s="1" t="s">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F150" s="1" t="s">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F154" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F157" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F160" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F161" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F162" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F164" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7452,8 +7837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0A9CF3-8339-4D35-863A-4742E954BC82}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7535,8 +7920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD88CBB9-E988-4B1E-8F8A-3E55C8CCD568}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7669,8 +8054,25 @@
         <v>43520</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6" ht="162" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="18">
+        <v>43527</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
